--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fgf2-Nrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fgf2-Nrp1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.005243333333333</v>
+        <v>0.7321483333333333</v>
       </c>
       <c r="H2">
-        <v>3.01573</v>
+        <v>2.196445</v>
       </c>
       <c r="I2">
-        <v>0.07224874268505826</v>
+        <v>0.05113520435363902</v>
       </c>
       <c r="J2">
-        <v>0.07224874268505825</v>
+        <v>0.05113520435363902</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>118.0470123333333</v>
+        <v>127.3992563333333</v>
       </c>
       <c r="N2">
-        <v>354.141037</v>
+        <v>382.197769</v>
       </c>
       <c r="O2">
-        <v>0.4657216250363637</v>
+        <v>0.4838549810199306</v>
       </c>
       <c r="P2">
-        <v>0.4657216250363638</v>
+        <v>0.4838549810199307</v>
       </c>
       <c r="Q2">
-        <v>118.6659721680011</v>
+        <v>93.2751531923561</v>
       </c>
       <c r="R2">
-        <v>1067.99374951201</v>
+        <v>839.4763787312049</v>
       </c>
       <c r="S2">
-        <v>0.03364780185011943</v>
+        <v>0.02474202333198028</v>
       </c>
       <c r="T2">
-        <v>0.03364780185011943</v>
+        <v>0.02474202333198029</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.005243333333333</v>
+        <v>0.7321483333333333</v>
       </c>
       <c r="H3">
-        <v>3.01573</v>
+        <v>2.196445</v>
       </c>
       <c r="I3">
-        <v>0.07224874268505826</v>
+        <v>0.05113520435363902</v>
       </c>
       <c r="J3">
-        <v>0.07224874268505825</v>
+        <v>0.05113520435363902</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>59.36586533333334</v>
+        <v>59.36586533333332</v>
       </c>
       <c r="N3">
         <v>178.097596</v>
       </c>
       <c r="O3">
-        <v>0.2342114953037476</v>
+        <v>0.2254681108101269</v>
       </c>
       <c r="P3">
-        <v>0.2342114953037476</v>
+        <v>0.2254681108101269</v>
       </c>
       <c r="Q3">
-        <v>59.67714035389778</v>
+        <v>43.4646193606911</v>
       </c>
       <c r="R3">
-        <v>537.09426318508</v>
+        <v>391.1815742462199</v>
       </c>
       <c r="S3">
-        <v>0.01692148605808319</v>
+        <v>0.01152935792150476</v>
       </c>
       <c r="T3">
-        <v>0.01692148605808319</v>
+        <v>0.01152935792150477</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.005243333333333</v>
+        <v>0.7321483333333333</v>
       </c>
       <c r="H4">
-        <v>3.01573</v>
+        <v>2.196445</v>
       </c>
       <c r="I4">
-        <v>0.07224874268505826</v>
+        <v>0.05113520435363902</v>
       </c>
       <c r="J4">
-        <v>0.07224874268505825</v>
+        <v>0.05113520435363902</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>19.21324333333333</v>
+        <v>16.63275166666667</v>
       </c>
       <c r="N4">
-        <v>57.63973</v>
+        <v>49.898255</v>
       </c>
       <c r="O4">
-        <v>0.07580050295684103</v>
+        <v>0.06317022542837675</v>
       </c>
       <c r="P4">
-        <v>0.07580050295684103</v>
+        <v>0.06317022542837675</v>
       </c>
       <c r="Q4">
-        <v>19.31398477254444</v>
+        <v>12.17764141149722</v>
       </c>
       <c r="R4">
-        <v>173.8258629529</v>
+        <v>109.598772703475</v>
       </c>
       <c r="S4">
-        <v>0.005476491033526805</v>
+        <v>0.003230222386345489</v>
       </c>
       <c r="T4">
-        <v>0.005476491033526805</v>
+        <v>0.003230222386345489</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.005243333333333</v>
+        <v>0.7321483333333333</v>
       </c>
       <c r="H5">
-        <v>3.01573</v>
+        <v>2.196445</v>
       </c>
       <c r="I5">
-        <v>0.07224874268505826</v>
+        <v>0.05113520435363902</v>
       </c>
       <c r="J5">
-        <v>0.07224874268505825</v>
+        <v>0.05113520435363902</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>56.84506433333333</v>
+        <v>59.90262233333334</v>
       </c>
       <c r="N5">
-        <v>170.535193</v>
+        <v>179.707867</v>
       </c>
       <c r="O5">
-        <v>0.2242663767030476</v>
+        <v>0.2275066827415657</v>
       </c>
       <c r="P5">
-        <v>0.2242663767030476</v>
+        <v>0.2275066827415658</v>
       </c>
       <c r="Q5">
-        <v>57.14312195398777</v>
+        <v>43.85760510364612</v>
       </c>
       <c r="R5">
-        <v>514.2880975858899</v>
+        <v>394.718445932815</v>
       </c>
       <c r="S5">
-        <v>0.01620296374332883</v>
+        <v>0.01163360071380848</v>
       </c>
       <c r="T5">
-        <v>0.01620296374332883</v>
+        <v>0.01163360071380849</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>30.779518</v>
       </c>
       <c r="I6">
-        <v>0.7373940889775011</v>
+        <v>0.7165747117895102</v>
       </c>
       <c r="J6">
-        <v>0.737394088977501</v>
+        <v>0.7165747117895102</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>118.0470123333333</v>
+        <v>127.3992563333333</v>
       </c>
       <c r="N6">
-        <v>354.141037</v>
+        <v>382.197769</v>
       </c>
       <c r="O6">
-        <v>0.4657216250363637</v>
+        <v>0.4838549810199306</v>
       </c>
       <c r="P6">
-        <v>0.4657216250363638</v>
+        <v>0.4838549810199307</v>
       </c>
       <c r="Q6">
-        <v>1211.143380320018</v>
+        <v>1307.095901166149</v>
       </c>
       <c r="R6">
-        <v>10900.29042288017</v>
+        <v>11763.86311049534</v>
       </c>
       <c r="S6">
-        <v>0.3434203734108108</v>
+        <v>0.3467182435722757</v>
       </c>
       <c r="T6">
-        <v>0.3434203734108108</v>
+        <v>0.3467182435722758</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>30.779518</v>
       </c>
       <c r="I7">
-        <v>0.7373940889775011</v>
+        <v>0.7165747117895102</v>
       </c>
       <c r="J7">
-        <v>0.737394088977501</v>
+        <v>0.7165747117895102</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>59.36586533333334</v>
+        <v>59.36586533333332</v>
       </c>
       <c r="N7">
         <v>178.097596</v>
       </c>
       <c r="O7">
-        <v>0.2342114953037476</v>
+        <v>0.2254681108101269</v>
       </c>
       <c r="P7">
-        <v>0.2342114953037476</v>
+        <v>0.2254681108101269</v>
       </c>
       <c r="Q7">
-        <v>609.0842402043032</v>
+        <v>609.084240204303</v>
       </c>
       <c r="R7">
         <v>5481.758161838728</v>
       </c>
       <c r="S7">
-        <v>0.1727061722075653</v>
+        <v>0.161564746521492</v>
       </c>
       <c r="T7">
-        <v>0.1727061722075652</v>
+        <v>0.161564746521492</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>30.779518</v>
       </c>
       <c r="I8">
-        <v>0.7373940889775011</v>
+        <v>0.7165747117895102</v>
       </c>
       <c r="J8">
-        <v>0.737394088977501</v>
+        <v>0.7165747117895102</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>19.21324333333333</v>
+        <v>16.63275166666667</v>
       </c>
       <c r="N8">
-        <v>57.63973</v>
+        <v>49.898255</v>
       </c>
       <c r="O8">
-        <v>0.07580050295684103</v>
+        <v>0.06317022542837675</v>
       </c>
       <c r="P8">
-        <v>0.07580050295684103</v>
+        <v>0.06317022542837675</v>
       </c>
       <c r="Q8">
-        <v>197.1247896722378</v>
+        <v>170.6493597712322</v>
       </c>
       <c r="R8">
-        <v>1774.12310705014</v>
+        <v>1535.84423794109</v>
       </c>
       <c r="S8">
-        <v>0.05589484282189617</v>
+        <v>0.04526618608001745</v>
       </c>
       <c r="T8">
-        <v>0.05589484282189616</v>
+        <v>0.04526618608001745</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>30.779518</v>
       </c>
       <c r="I9">
-        <v>0.7373940889775011</v>
+        <v>0.7165747117895102</v>
       </c>
       <c r="J9">
-        <v>0.737394088977501</v>
+        <v>0.7165747117895102</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>56.84506433333333</v>
+        <v>59.90262233333334</v>
       </c>
       <c r="N9">
-        <v>170.535193</v>
+        <v>179.707867</v>
       </c>
       <c r="O9">
-        <v>0.2242663767030476</v>
+        <v>0.2275066827415657</v>
       </c>
       <c r="P9">
-        <v>0.2242663767030476</v>
+        <v>0.2275066827415658</v>
       </c>
       <c r="Q9">
-        <v>583.2212269529971</v>
+        <v>614.5912807853452</v>
       </c>
       <c r="R9">
-        <v>5248.991042576974</v>
+        <v>5531.321527068107</v>
       </c>
       <c r="S9">
-        <v>0.1653727005372289</v>
+        <v>0.163025535615725</v>
       </c>
       <c r="T9">
-        <v>0.1653727005372289</v>
+        <v>0.163025535615725</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.264687</v>
+        <v>2.568000333333333</v>
       </c>
       <c r="H10">
-        <v>6.794061</v>
+        <v>7.704001</v>
       </c>
       <c r="I10">
-        <v>0.162767344880208</v>
+        <v>0.1793560346266988</v>
       </c>
       <c r="J10">
-        <v>0.162767344880208</v>
+        <v>0.1793560346266988</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>118.0470123333333</v>
+        <v>127.3992563333333</v>
       </c>
       <c r="N10">
-        <v>354.141037</v>
+        <v>382.197769</v>
       </c>
       <c r="O10">
-        <v>0.4657216250363637</v>
+        <v>0.4838549810199306</v>
       </c>
       <c r="P10">
-        <v>0.4657216250363638</v>
+        <v>0.4838549810199307</v>
       </c>
       <c r="Q10">
-        <v>267.3395342201396</v>
+        <v>327.1613327304188</v>
       </c>
       <c r="R10">
-        <v>2406.055807981257</v>
+        <v>2944.451994573769</v>
       </c>
       <c r="S10">
-        <v>0.07580427236046472</v>
+        <v>0.08678231073011136</v>
       </c>
       <c r="T10">
-        <v>0.07580427236046473</v>
+        <v>0.08678231073011138</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.264687</v>
+        <v>2.568000333333333</v>
       </c>
       <c r="H11">
-        <v>6.794061</v>
+        <v>7.704001</v>
       </c>
       <c r="I11">
-        <v>0.162767344880208</v>
+        <v>0.1793560346266988</v>
       </c>
       <c r="J11">
-        <v>0.162767344880208</v>
+        <v>0.1793560346266988</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>59.36586533333334</v>
+        <v>59.36586533333332</v>
       </c>
       <c r="N11">
         <v>178.097596</v>
       </c>
       <c r="O11">
-        <v>0.2342114953037476</v>
+        <v>0.2254681108101269</v>
       </c>
       <c r="P11">
-        <v>0.2342114953037476</v>
+        <v>0.2254681108101269</v>
       </c>
       <c r="Q11">
-        <v>134.4451034641507</v>
+        <v>152.4515619646218</v>
       </c>
       <c r="R11">
-        <v>1210.005931177356</v>
+        <v>1372.064057681596</v>
       </c>
       <c r="S11">
-        <v>0.0381219832310143</v>
+        <v>0.04043906628967747</v>
       </c>
       <c r="T11">
-        <v>0.0381219832310143</v>
+        <v>0.04043906628967748</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.264687</v>
+        <v>2.568000333333333</v>
       </c>
       <c r="H12">
-        <v>6.794061</v>
+        <v>7.704001</v>
       </c>
       <c r="I12">
-        <v>0.162767344880208</v>
+        <v>0.1793560346266988</v>
       </c>
       <c r="J12">
-        <v>0.162767344880208</v>
+        <v>0.1793560346266988</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>19.21324333333333</v>
+        <v>16.63275166666667</v>
       </c>
       <c r="N12">
-        <v>57.63973</v>
+        <v>49.898255</v>
       </c>
       <c r="O12">
-        <v>0.07580050295684103</v>
+        <v>0.06317022542837675</v>
       </c>
       <c r="P12">
-        <v>0.07580050295684103</v>
+        <v>0.06317022542837675</v>
       </c>
       <c r="Q12">
-        <v>43.51198240483667</v>
+        <v>42.71291182425056</v>
       </c>
       <c r="R12">
-        <v>391.60784164353</v>
+        <v>384.416206418255</v>
       </c>
       <c r="S12">
-        <v>0.01233784660686937</v>
+        <v>0.01132996113930831</v>
       </c>
       <c r="T12">
-        <v>0.01233784660686937</v>
+        <v>0.01132996113930831</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.264687</v>
+        <v>2.568000333333333</v>
       </c>
       <c r="H13">
-        <v>6.794061</v>
+        <v>7.704001</v>
       </c>
       <c r="I13">
-        <v>0.162767344880208</v>
+        <v>0.1793560346266988</v>
       </c>
       <c r="J13">
-        <v>0.162767344880208</v>
+        <v>0.1793560346266988</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>56.84506433333333</v>
+        <v>59.90262233333334</v>
       </c>
       <c r="N13">
-        <v>170.535193</v>
+        <v>179.707867</v>
       </c>
       <c r="O13">
-        <v>0.2242663767030476</v>
+        <v>0.2275066827415657</v>
       </c>
       <c r="P13">
-        <v>0.2242663767030476</v>
+        <v>0.2275066827415658</v>
       </c>
       <c r="Q13">
-        <v>128.7362782098637</v>
+        <v>153.8299541195408</v>
       </c>
       <c r="R13">
-        <v>1158.626503888773</v>
+        <v>1384.469587075867</v>
       </c>
       <c r="S13">
-        <v>0.03650324268185959</v>
+        <v>0.04080469646760164</v>
       </c>
       <c r="T13">
-        <v>0.03650324268185959</v>
+        <v>0.04080469646760165</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.383875</v>
+        <v>0.7579039999999999</v>
       </c>
       <c r="H14">
-        <v>1.151625</v>
+        <v>2.273712</v>
       </c>
       <c r="I14">
-        <v>0.02758982345723265</v>
+        <v>0.05293404923015203</v>
       </c>
       <c r="J14">
-        <v>0.02758982345723265</v>
+        <v>0.05293404923015203</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>118.0470123333333</v>
+        <v>127.3992563333333</v>
       </c>
       <c r="N14">
-        <v>354.141037</v>
+        <v>382.197769</v>
       </c>
       <c r="O14">
-        <v>0.4657216250363637</v>
+        <v>0.4838549810199306</v>
       </c>
       <c r="P14">
-        <v>0.4657216250363638</v>
+        <v>0.4838549810199307</v>
       </c>
       <c r="Q14">
-        <v>45.31529685945834</v>
+        <v>96.55640597205866</v>
       </c>
       <c r="R14">
-        <v>407.837671735125</v>
+        <v>869.0076537485279</v>
       </c>
       <c r="S14">
-        <v>0.01284917741496878</v>
+        <v>0.02561240338556328</v>
       </c>
       <c r="T14">
-        <v>0.01284917741496878</v>
+        <v>0.02561240338556329</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.383875</v>
+        <v>0.7579039999999999</v>
       </c>
       <c r="H15">
-        <v>1.151625</v>
+        <v>2.273712</v>
       </c>
       <c r="I15">
-        <v>0.02758982345723265</v>
+        <v>0.05293404923015203</v>
       </c>
       <c r="J15">
-        <v>0.02758982345723265</v>
+        <v>0.05293404923015203</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>59.36586533333334</v>
+        <v>59.36586533333332</v>
       </c>
       <c r="N15">
         <v>178.097596</v>
       </c>
       <c r="O15">
-        <v>0.2342114953037476</v>
+        <v>0.2254681108101269</v>
       </c>
       <c r="P15">
-        <v>0.2342114953037476</v>
+        <v>0.2254681108101269</v>
       </c>
       <c r="Q15">
-        <v>22.78907155483334</v>
+        <v>44.99362679959466</v>
       </c>
       <c r="R15">
-        <v>205.1016439935</v>
+        <v>404.9426411963519</v>
       </c>
       <c r="S15">
-        <v>0.006461853807084871</v>
+        <v>0.01193494007745263</v>
       </c>
       <c r="T15">
-        <v>0.006461853807084871</v>
+        <v>0.01193494007745263</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.383875</v>
+        <v>0.7579039999999999</v>
       </c>
       <c r="H16">
-        <v>1.151625</v>
+        <v>2.273712</v>
       </c>
       <c r="I16">
-        <v>0.02758982345723265</v>
+        <v>0.05293404923015203</v>
       </c>
       <c r="J16">
-        <v>0.02758982345723265</v>
+        <v>0.05293404923015203</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>19.21324333333333</v>
+        <v>16.63275166666667</v>
       </c>
       <c r="N16">
-        <v>57.63973</v>
+        <v>49.898255</v>
       </c>
       <c r="O16">
-        <v>0.07580050295684103</v>
+        <v>0.06317022542837675</v>
       </c>
       <c r="P16">
-        <v>0.07580050295684103</v>
+        <v>0.06317022542837675</v>
       </c>
       <c r="Q16">
-        <v>7.375483784583334</v>
+        <v>12.60602901917333</v>
       </c>
       <c r="R16">
-        <v>66.37935406125001</v>
+        <v>113.45426117256</v>
       </c>
       <c r="S16">
-        <v>0.002091322494548686</v>
+        <v>0.003343855822705496</v>
       </c>
       <c r="T16">
-        <v>0.002091322494548686</v>
+        <v>0.003343855822705496</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.383875</v>
+        <v>0.7579039999999999</v>
       </c>
       <c r="H17">
-        <v>1.151625</v>
+        <v>2.273712</v>
       </c>
       <c r="I17">
-        <v>0.02758982345723265</v>
+        <v>0.05293404923015203</v>
       </c>
       <c r="J17">
-        <v>0.02758982345723265</v>
+        <v>0.05293404923015203</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>56.84506433333333</v>
+        <v>59.90262233333334</v>
       </c>
       <c r="N17">
-        <v>170.535193</v>
+        <v>179.707867</v>
       </c>
       <c r="O17">
-        <v>0.2242663767030476</v>
+        <v>0.2275066827415657</v>
       </c>
       <c r="P17">
-        <v>0.2242663767030476</v>
+        <v>0.2275066827415658</v>
       </c>
       <c r="Q17">
-        <v>21.82139907095834</v>
+        <v>45.40043707692266</v>
       </c>
       <c r="R17">
-        <v>196.392591638625</v>
+        <v>408.603933692304</v>
       </c>
       <c r="S17">
-        <v>0.006187469740630318</v>
+        <v>0.01204284994443062</v>
       </c>
       <c r="T17">
-        <v>0.006187469740630318</v>
+        <v>0.01204284994443062</v>
       </c>
     </row>
   </sheetData>
